--- a/fontes_db/doadores_pref/Eleições 2016 - Doadores Partidos Coligação Prefeito e Vice-Prefeito.xlsx
+++ b/fontes_db/doadores_pref/Eleições 2016 - Doadores Partidos Coligação Prefeito e Vice-Prefeito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/doadores_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4261F294-9B2E-AE46-AA80-3E35D6794410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C485A2D-BA69-DF40-A288-A10BEBD72A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{A0BE09AC-CA02-4542-AE1E-A465850BCC0A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
   <si>
     <t>Cód. Eleição</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>CNPJ</t>
+  </si>
+  <si>
+    <t>Sigla_Partido</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50DB4F89-356D-48E4-8C47-FD6F2EDB030B}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50DB4F89-356D-48E4-8C47-FD6F2EDB030B}" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:D6" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="33">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -1684,7 +1687,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -1724,6 +1727,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -1735,6 +1741,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
@@ -1746,6 +1755,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
